--- a/input/test/MatrixEngineTemplate_10.xlsx
+++ b/input/test/MatrixEngineTemplate_10.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="1540" windowWidth="17020" windowHeight="14660" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="11700" yWindow="1540" windowWidth="17020" windowHeight="14660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="6" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>Equation</t>
   </si>
   <si>
-    <t>System Dynamics Fitness</t>
-  </si>
-  <si>
     <t>a + b</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>INITIAL(a + b, 10.1)</t>
+  </si>
+  <si>
+    <t>User Equation Fitness</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -690,15 +690,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>43</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5">
         <v>0.1</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5">
         <v>0.1</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5">
         <v>0.4</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5">
         <v>0.33333000000000002</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5">
         <v>0.33333000000000002</v>
@@ -817,15 +817,15 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -855,13 +855,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4">
         <v>0.5</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -914,21 +914,21 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -940,7 +940,7 @@
         <v>10.4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -949,10 +949,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -978,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1004,7 +1004,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>0.5</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>0.5</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1080,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1091,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1102,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
